--- a/biology/Botanique/Bois_de_Bel-Air_(Charente)/Bois_de_Bel-Air_(Charente).xlsx
+++ b/biology/Botanique/Bois_de_Bel-Air_(Charente)/Bois_de_Bel-Air_(Charente).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bois de Bel-Air est un vaste massif forestier de la Charente, en France, située dans le nord-est du département.
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bois de Bel-Air est une forêt située à 30 km au nord-est d'Angoulême et à 10 km au nord-ouest de Chasseneuil-sur-Bonnieure. Elle est à la limite des anciens canton de Mansle au nord et de celui de Saint-Claud au sud.
 Sur sa lisière sud-est, elle est séparée de la forêt de Chasseneuil par le vallon du Marais, ou ruisseau de Marillac, affluent de la Bonnieure qui passe au bourg de Saint-Mary.
@@ -547,9 +561,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La limite cantonale passe au sommet de la forêt. Dirigée est-ouest, elle occupe le tracé d'une ancienne voie romaine, embranchement de la voie d'Agrippa de Saintes à Lyon et allant de Chasseneuil, Mansle et Aulnay. Elle passait légèrement au sud du bourg de La Tâche par la Soudière. Une autre voie romaine, perpendiculaire, celle d'Angoulême à Bourges, effleure la forêt à l'ouest et passe par le bourg de La Tâche[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La limite cantonale passe au sommet de la forêt. Dirigée est-ouest, elle occupe le tracé d'une ancienne voie romaine, embranchement de la voie d'Agrippa de Saintes à Lyon et allant de Chasseneuil, Mansle et Aulnay. Elle passait légèrement au sud du bourg de La Tâche par la Soudière. Une autre voie romaine, perpendiculaire, celle d'Angoulême à Bourges, effleure la forêt à l'ouest et passe par le bourg de La Tâche,.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Géologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette forêt occupe un vaste plateau calcaire jurassique, rebord du Bassin aquitain, recouvert d'argile à galets d'origine détritique de l'époque tertiaire en provenance du Massif central situé à moins d'une dizaine de kilomètres à l'est.
 En bordure du karst de La Rochefoucauld, la forêt compte quelques dolines ou fosses, localisées principalement au sud et à l'est : Fosse longue, Fosse de la Terrière, Fosse de Gâte-Bourse, Fosse des Bâtards, Fosse des Pradeaux.
@@ -610,7 +628,9 @@
           <t>Végétation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Principalement des feuillus : châtaigniers, chênes, hêtres.
 </t>
@@ -641,9 +661,11 @@
           <t>Nature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt fait partie d'un ensemble de 5 537 ha comprenant aussi la forêt de Quatre Vaux et la vallée de la Bonnieure, classé en zone naturelle d'intérêt écologique, faunistique et floristique (ZNIEFF) type 2[6],[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt fait partie d'un ensemble de 5 537 ha comprenant aussi la forêt de Quatre Vaux et la vallée de la Bonnieure, classé en zone naturelle d'intérêt écologique, faunistique et floristique (ZNIEFF) type 2,.
 </t>
         </is>
       </c>
@@ -672,10 +694,12 @@
           <t>Lieux</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Les logis de Bel-Air : au cœur de la forêt et à son sommet, au carrefour de la D.175 et D.185, cette maison forestière possédait une éolienne qui était un point géodésique visible de loin, détruite récemment[7].
-La pierre de Robinaud[Où ?], encore visible en 1948[8] (légende de Robineau de Gajoubert)[9].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les logis de Bel-Air : au cœur de la forêt et à son sommet, au carrefour de la D.175 et D.185, cette maison forestière possédait une éolienne qui était un point géodésique visible de loin, détruite récemment.
+La pierre de Robinaud[Où ?], encore visible en 1948 (légende de Robineau de Gajoubert).</t>
         </is>
       </c>
     </row>
